--- a/data/long_bre/P23_9-Edad-long_bre.xlsx
+++ b/data/long_bre/P23_9-Edad-long_bre.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -514,6 +521,8 @@
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
     <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -529,12 +538,14 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -551,12 +562,22 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -567,6 +588,8 @@
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
       <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -576,27 +599,37 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-2,29</t>
+          <t>-6,64</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,06</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-9,94%</t>
+          <t>6,92</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>8,11%</t>
+          <t>-24,71%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>2,06%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>38,09%</t>
         </is>
       </c>
     </row>
@@ -609,22 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-14,86; 8,41</t>
+          <t>-20,32; 5,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-10,4; 13,16</t>
+          <t>-11,82; 12,25</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-48,34; 47,98</t>
+          <t>-7,48; 22,06</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-31,09; 69,08</t>
+          <t>-56,51; 34,69</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-33,88; 62,41</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-32,44; 220,45</t>
         </is>
       </c>
     </row>
@@ -632,27 +675,37 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,44</t>
+          <t>4,34</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-5,84</t>
+          <t>-3,82</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,82%</t>
+          <t>-8,44</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-9,16%</t>
+          <t>9,05%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>-6,2%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>-14,72%</t>
         </is>
       </c>
     </row>
@@ -665,22 +718,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-13,86; 15,29</t>
+          <t>-8,61; 19,99</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-19,1; 8,43</t>
+          <t>-16,29; 9,63</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-23,42; 36,35</t>
+          <t>-26,07; 9,39</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-26,49; 15,13</t>
+          <t>-16,56; 49,56</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-23,99; 17,9</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-37,88; 20,63</t>
         </is>
       </c>
     </row>
@@ -688,27 +751,37 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,85</t>
+          <t>2,29</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,77</t>
+          <t>3,26</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,29%</t>
+          <t>1,52</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>34,72%</t>
+          <t>9,13%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>29,78%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>6,19%</t>
         </is>
       </c>
     </row>
@@ -721,54 +794,70 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-12,14; 14,63</t>
+          <t>-10,66; 12,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,95; 12,07</t>
+          <t>-5,06; 11,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-36,54; 83,57</t>
+          <t>-14,17; 15,44</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-39,09; 196,62</t>
+          <t>-33,62; 68,92</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>-34,34; 190,16</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>-45,12; 102,47</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>8,45</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-8,84</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>46,98%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-25,85%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -781,50 +870,74 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 19,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-24,93; 3,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-13,48; 155,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-55,18; 13,25</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-6,52</t>
+          <t>8,86</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,56</t>
+          <t>-10,11</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-12,97%</t>
+          <t>-4,37</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>8,22%</t>
+          <t>50,22%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-28,43%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-12,11%</t>
         </is>
       </c>
     </row>
@@ -837,22 +950,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-21,39; 7,61</t>
+          <t>-1,68; 19,96</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,34; 16,68</t>
+          <t>-25,88; 1,55</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-36,12; 17,51</t>
+          <t>-22,25; 12,67</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-18,12; 46,13</t>
+          <t>-7,83; 162,52</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-55,16; 7,39</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-46,62; 50,61</t>
         </is>
       </c>
     </row>
@@ -860,27 +983,37 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-1,93</t>
+          <t>-5,71</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>5,27</t>
+          <t>4,51</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-6,07%</t>
+          <t>16,22</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>23,48%</t>
+          <t>-11,55%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>10,67%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>44,35%</t>
         </is>
       </c>
     </row>
@@ -893,54 +1026,70 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-15,04; 10,82</t>
+          <t>-20,68; 9,53</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-5,48; 14,34</t>
+          <t>-7,16; 17,53</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-38,27; 45,88</t>
+          <t>1,55; 32,9</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-18,64; 88,61</t>
+          <t>-36,16; 23,39</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>-14,44; 53,09</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>3,26; 143,64</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-13,73</t>
+          <t>-3,15</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-4,0</t>
+          <t>5,6</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-38,1%</t>
+          <t>-11,84</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-12,44%</t>
+          <t>-9,56%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>25,3%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>-43,34%</t>
         </is>
       </c>
     </row>
@@ -953,22 +1102,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-24,67; -4,22</t>
+          <t>-19,22; 9,33</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-12,99; 4,48</t>
+          <t>-4,28; 15,7</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-57,15; -12,25</t>
+          <t>-41,05; 2,63</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-34,54; 17,3</t>
+          <t>-44,01; 39,37</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-14,96; 99,18</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>-80,09; 15,8</t>
         </is>
       </c>
     </row>
@@ -976,27 +1135,37 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>9,89</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>28,59%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>1,43%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1009,50 +1178,74 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 19,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-8,88; 10,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 72,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-20,19; 31,22</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>3,83</t>
+          <t>-12,93</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>3,43</t>
+          <t>-3,98</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>13,05%</t>
+          <t>15,19</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>12,15%</t>
+          <t>-36,37%</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-12,41%</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>56,2%</t>
         </is>
       </c>
     </row>
@@ -1065,54 +1258,70 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-6,2; 14,85</t>
+          <t>-26,15; -3,19</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-7,59; 12,97</t>
+          <t>-12,82; 4,83</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-17,4; 61,9</t>
+          <t>5,06; 24,68</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-22,46; 61,41</t>
+          <t>-56,5; -9,97</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-34,09; 17,76</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>15,43; 117,48</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>45-54</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-6,5</t>
+          <t>8,35</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-4,88</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-23,36%</t>
+          <t>-2,75</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-13,42%</t>
+          <t>23,73%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-1,26%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-5,78%</t>
         </is>
       </c>
     </row>
@@ -1125,22 +1334,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-16,24; 2,0</t>
+          <t>-2,69; 19,16</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-13,73; 3,11</t>
+          <t>-10,96; 8,88</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-47,33; 10,13</t>
+          <t>-14,88; 8,0</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-33,7; 9,83</t>
+          <t>-7,25; 67,42</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-23,49; 25,26</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-27,38; 19,13</t>
         </is>
       </c>
     </row>
@@ -1148,27 +1367,37 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>4,58</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-0,29</t>
+          <t>4,49</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-0,02%</t>
+          <t>-12,44</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-0,75%</t>
+          <t>15,67%</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>16,54%</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>-49,08%</t>
         </is>
       </c>
     </row>
@@ -1181,22 +1410,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-9,56; 9,37</t>
+          <t>-5,4; 14,54</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-8,69; 8,88</t>
+          <t>-5,65; 14,45</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-23,03; 29,28</t>
+          <t>-20,28; -3,14</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-20,49; 26,88</t>
+          <t>-14,33; 66,34</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>-16,96; 73,31</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>-66,76; -15,31</t>
         </is>
       </c>
     </row>
@@ -1204,27 +1443,37 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>6,5</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>5,16</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>18,87%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>20,24%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1237,54 +1486,74 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 15,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 13,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-6,73; 54,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-10,2; 62,94</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>55-64</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-5,64</t>
+          <t>-6,29</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>-5,34</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-21,43%</t>
+          <t>9,8</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>1,87%</t>
+          <t>-22,99%</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>-14,68%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>30,9%</t>
         </is>
       </c>
     </row>
@@ -1297,22 +1566,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-15,26; 5,2</t>
+          <t>-16,51; 3,26</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-8,92; 9,32</t>
+          <t>-14,91; 2,59</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-50,26; 26,42</t>
+          <t>-0,68; 19,75</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-28,21; 39,59</t>
+          <t>-48,64; 15,13</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>-34,58; 8,8</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>-2,13; 76,15</t>
         </is>
       </c>
     </row>
@@ -1320,27 +1599,37 @@
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>8,57</t>
+          <t>-0,46</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-3,51</t>
+          <t>-0,44</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>23,4%</t>
+          <t>-4,93</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-8,24%</t>
+          <t>-1,19%</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>-1,15%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>-11,54%</t>
         </is>
       </c>
     </row>
@@ -1353,22 +1642,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 20,73</t>
+          <t>-10,9; 9,26</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-12,94; 6,13</t>
+          <t>-8,74; 9,7</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-4,63; 66,6</t>
+          <t>-16,26; 5,7</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-27,57; 16,71</t>
+          <t>-25,31; 29,23</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-20,46; 28,9</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-33,39; 15,66</t>
         </is>
       </c>
     </row>
@@ -1376,27 +1675,37 @@
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>-2,94</t>
+          <t>6,74</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>2,99</t>
+          <t>5,78</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>-7,93%</t>
+          <t>-4,87</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>10,26%</t>
+          <t>19,64%</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>23,06%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>-19,01%</t>
         </is>
       </c>
     </row>
@@ -1409,54 +1718,70 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-14,3; 9,35</t>
+          <t>-3,48; 16,03</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-5,86; 12,42</t>
+          <t>-1,51; 13,82</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-32,4; 31,38</t>
+          <t>-21,39; 4,12</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-16,8; 49,81</t>
+          <t>-8,63; 55,36</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-5,24; 67,09</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-54,33; 22,73</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>2,99</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>-5,53</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>15,31%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>-14,09%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1469,50 +1794,74 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-8,8; 14,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-18,03; 6,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-34,1; 106,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-40,12; 21,39</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n"/>
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>4,53</t>
+          <t>-6,21</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>11,1</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>11,27%</t>
+          <t>-3,78</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>34,78%</t>
+          <t>-23,75%</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>1,08%</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>-9,25%</t>
         </is>
       </c>
     </row>
@@ -1525,22 +1874,32 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-15,32; 19,75</t>
+          <t>-16,49; 3,74</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 21,55</t>
+          <t>-8,04; 9,15</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-30,58; 66,31</t>
+          <t>-15,75; 10,9</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-6,73; 83,33</t>
+          <t>-52,92; 16,9</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>-24,26; 39,32</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>-34,12; 32,31</t>
         </is>
       </c>
     </row>
@@ -1548,27 +1907,37 @@
       <c r="A38" s="1" t="n"/>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>-7,53</t>
+          <t>8,66</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>-5,57</t>
+          <t>-2,74</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>-18,71%</t>
+          <t>-4,8</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>-19,34%</t>
+          <t>23,85%</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>-6,49%</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>-11,38%</t>
         </is>
       </c>
     </row>
@@ -1581,54 +1950,70 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-22,0; 8,32</t>
+          <t>-2,66; 19,83</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-16,41; 5,71</t>
+          <t>-12,49; 6,88</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-44,12; 28,02</t>
+          <t>-17,72; 7,4</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-46,43; 26,31</t>
+          <t>-6,64; 65,01</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>-27,55; 19,03</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>-35,55; 21,34</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A40" s="1" t="n"/>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>-3,33</t>
+          <t>-2,45</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>-3,46</t>
+          <t>2,44</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>-12,96%</t>
+          <t>8,57</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>-10,56%</t>
+          <t>-6,52%</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>8,34%</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>50,43%</t>
         </is>
       </c>
     </row>
@@ -1641,22 +2026,32 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>-8,07; 1,02</t>
+          <t>-15,0; 9,06</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>-8,03; 0,81</t>
+          <t>-6,6; 11,9</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>-27,85; 4,51</t>
+          <t>-2,23; 18,51</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>-22,78; 2,4</t>
+          <t>-34,73; 28,9</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>-19,8; 47,97</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>-10,59; 140,77</t>
         </is>
       </c>
     </row>
@@ -1664,27 +2059,37 @@
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>2,93</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>7,07%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>1,72%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1697,50 +2102,74 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 8,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>-3,47; 5,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>-6,74; 20,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>-7,48; 14,43</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n"/>
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>1,51</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>2,71</t>
+          <t>-6,24</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>1,22%</t>
+          <t>-6,4</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>11,16%</t>
+          <t>7,22%</t>
+        </is>
+      </c>
+      <c r="G44" s="2" t="inlineStr">
+        <is>
+          <t>-15,94%</t>
+        </is>
+      </c>
+      <c r="H44" s="2" t="inlineStr">
+        <is>
+          <t>-16,81%</t>
         </is>
       </c>
     </row>
@@ -1753,37 +2182,590 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 5,75</t>
+          <t>-9,25; 12,62</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 6,8</t>
+          <t>-17,67; 5,17</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>-12,38; 18,14</t>
+          <t>-22,2; 9,27</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 31,66</t>
+          <t>-34,93; 83,55</t>
+        </is>
+      </c>
+      <c r="G45" s="2" t="inlineStr">
+        <is>
+          <t>-39,4; 16,14</t>
+        </is>
+      </c>
+      <c r="H45" s="2" t="inlineStr">
+        <is>
+          <t>-47,65; 34,34</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>6,6</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>11,81</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>-7,68</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>17,25%</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="inlineStr">
+        <is>
+          <t>37,05%</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>-17,9%</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>-8,98; 20,83</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>-0,15; 23,04</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>-23,64; 8,34</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>-20,76; 69,45</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="inlineStr">
+        <is>
+          <t>-1,0; 90,35</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="inlineStr">
+        <is>
+          <t>-45,81; 24,78</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>-8,12</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>-5,58</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>14,08</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>-19,93%</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>-19,23%</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>74,03%</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>-23,08; 4,23</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>-15,14; 5,81</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>-0,4; 28,55</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>-45,72; 13,11</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t>-43,46; 25,07</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>-5,01; 233,22</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>Más diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>-4,02</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>-4,11</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>3,56</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>-15,35%</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="inlineStr">
+        <is>
+          <t>-12,37%</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>11,14%</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>-8,97; 0,22</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>-8,95; 0,64</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>-2,39; 9,13</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>-30,84; 1,06</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="inlineStr">
+        <is>
+          <t>-24,21; 2,01</t>
+        </is>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>-6,66; 32,01</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>3,44</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>1,19</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>-2,03</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>8,46%</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>2,78%</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>-4,55%</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>-1,86; 8,47</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>-3,48; 5,92</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>-7,77; 4,3</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>-4,64; 22,29</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="inlineStr">
+        <is>
+          <t>-7,67; 14,78</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>-15,99; 10,19</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>0,58</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>2,92</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>-1,53</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>1,74%</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="inlineStr">
+        <is>
+          <t>12,19%</t>
+        </is>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>-6,49%</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>-4,67; 5,56</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>-0,93; 6,9</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>-8,8; 3,58</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>-12,85; 18,67</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="inlineStr">
+        <is>
+          <t>-3,7; 31,79</t>
+        </is>
+      </c>
+      <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>-30,32; 17,71</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n"/>
+      <c r="B58" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n"/>
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A44:A51"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A52:A59"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
